--- a/BEMFSimulation/ExcelResults/LineVoltage4000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage4000.xlsx
@@ -408,13 +408,13 @@
         <v>4.166666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>-260.1073668895178</v>
+        <v>-262.5559306410993</v>
       </c>
       <c r="C2">
-        <v>540.0550164510661</v>
+        <v>550.3221935913489</v>
       </c>
       <c r="D2">
-        <v>-279.9476495615483</v>
+        <v>-287.7662629502495</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B3">
-        <v>-234.293475924078</v>
+        <v>-240.8574476200914</v>
       </c>
       <c r="C3">
-        <v>524.7277314105008</v>
+        <v>541.4255799489404</v>
       </c>
       <c r="D3">
-        <v>-290.4342554864228</v>
+        <v>-300.5681323288489</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.000125</v>
       </c>
       <c r="B4">
-        <v>-180.6113131938448</v>
+        <v>-191.6135174417916</v>
       </c>
       <c r="C4">
-        <v>493.0655240228129</v>
+        <v>513.5020971939152</v>
       </c>
       <c r="D4">
-        <v>-312.454210828968</v>
+        <v>-321.8885797521236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B5">
-        <v>-110.1027576374899</v>
+        <v>-107.9835898381793</v>
       </c>
       <c r="C5">
-        <v>453.5682925232845</v>
+        <v>454.6859569061347</v>
       </c>
       <c r="D5">
-        <v>-343.4655348857946</v>
+        <v>-346.7023670679555</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002083333333333333</v>
       </c>
       <c r="B6">
-        <v>-53.06762652205778</v>
+        <v>-51.17711105473268</v>
       </c>
       <c r="C6">
-        <v>426.9988288075465</v>
+        <v>440.2963638376409</v>
       </c>
       <c r="D6">
-        <v>-373.9312022854887</v>
+        <v>-389.1192527829082</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.00025</v>
       </c>
       <c r="B7">
-        <v>-23.66428131840159</v>
+        <v>-25.81456606012168</v>
       </c>
       <c r="C7">
-        <v>413.4487869702541</v>
+        <v>427.5730708355964</v>
       </c>
       <c r="D7">
-        <v>-389.7845056518525</v>
+        <v>-401.7585047754746</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002916666666666667</v>
       </c>
       <c r="B8">
-        <v>-6.449900637060409</v>
+        <v>-9.655329617838078</v>
       </c>
       <c r="C8">
-        <v>415.1850943402176</v>
+        <v>421.4670298357826</v>
       </c>
       <c r="D8">
-        <v>-408.7351937031572</v>
+        <v>-411.8117002179446</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B9">
-        <v>6.128966612673139</v>
+        <v>7.411734184145644</v>
       </c>
       <c r="C9">
-        <v>410.1404992818022</v>
+        <v>413.7346883301225</v>
       </c>
       <c r="D9">
-        <v>-416.2694658944754</v>
+        <v>-421.1464225142682</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003750000000000001</v>
       </c>
       <c r="B10">
-        <v>23.34919245164356</v>
+        <v>26.20653967746854</v>
       </c>
       <c r="C10">
-        <v>390.8511466937074</v>
+        <v>398.7220401542611</v>
       </c>
       <c r="D10">
-        <v>-414.200339145351</v>
+        <v>-424.9285798317296</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004166666666666667</v>
       </c>
       <c r="B11">
-        <v>52.37188534499882</v>
+        <v>52.61191869898043</v>
       </c>
       <c r="C11">
-        <v>375.2918877579216</v>
+        <v>394.0575582286374</v>
       </c>
       <c r="D11">
-        <v>-427.6637731029204</v>
+        <v>-446.6694769276179</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004583333333333334</v>
       </c>
       <c r="B12">
-        <v>109.6332633183796</v>
+        <v>112.7853648669175</v>
       </c>
       <c r="C12">
-        <v>344.6149781938749</v>
+        <v>348.1853096779571</v>
       </c>
       <c r="D12">
-        <v>-454.2482415122545</v>
+        <v>-460.9706745448746</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B13">
-        <v>179.4785948341138</v>
+        <v>186.9131960706682</v>
       </c>
       <c r="C13">
-        <v>313.4172663752198</v>
+        <v>317.7377279225753</v>
       </c>
       <c r="D13">
-        <v>-492.8958612093335</v>
+        <v>-504.6509239932435</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0005416666666666668</v>
       </c>
       <c r="B14">
-        <v>233.7187095308228</v>
+        <v>243.683481977445</v>
       </c>
       <c r="C14">
-        <v>290.4211628321896</v>
+        <v>300.3867675534464</v>
       </c>
       <c r="D14">
-        <v>-524.1398723630125</v>
+        <v>-544.0702495308914</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B15">
-        <v>259.3682589493086</v>
+        <v>260.7369223244913</v>
       </c>
       <c r="C15">
-        <v>279.0997090263344</v>
+        <v>286.0858312449794</v>
       </c>
       <c r="D15">
-        <v>-538.467967975643</v>
+        <v>-546.8227535694707</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.000625</v>
       </c>
       <c r="B16">
-        <v>276.2521999713563</v>
+        <v>279.675511718488</v>
       </c>
       <c r="C16">
-        <v>275.8109728559954</v>
+        <v>280.7852154844975</v>
       </c>
       <c r="D16">
-        <v>-552.0631728273518</v>
+        <v>-560.4607272029855</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B17">
-        <v>279.2930524148807</v>
+        <v>286.0742127424845</v>
       </c>
       <c r="C17">
-        <v>260.1871182289535</v>
+        <v>262.7757915392898</v>
       </c>
       <c r="D17">
-        <v>-539.4801706438341</v>
+        <v>-548.8500042817743</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0007083333333333333</v>
       </c>
       <c r="B18">
-        <v>289.6254786175585</v>
+        <v>300.5752295774564</v>
       </c>
       <c r="C18">
-        <v>234.4416539589263</v>
+        <v>241.8757316791504</v>
       </c>
       <c r="D18">
-        <v>-524.0671325764847</v>
+        <v>-542.4509612566067</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0007499999999999999</v>
       </c>
       <c r="B19">
-        <v>312.9271896202414</v>
+        <v>323.1852295377167</v>
       </c>
       <c r="C19">
-        <v>181.2556527554618</v>
+        <v>191.7609691288463</v>
       </c>
       <c r="D19">
-        <v>-494.1828423757032</v>
+        <v>-514.9461986665631</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007916666666666665</v>
       </c>
       <c r="B20">
-        <v>344.4438233116712</v>
+        <v>347.8433912557902</v>
       </c>
       <c r="C20">
-        <v>110.2048668607803</v>
+        <v>109.1179362696942</v>
       </c>
       <c r="D20">
-        <v>-454.6486901724515</v>
+        <v>-456.9613275254844</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0008333333333333332</v>
       </c>
       <c r="B21">
-        <v>374.8377182872821</v>
+        <v>390.5114173920516</v>
       </c>
       <c r="C21">
-        <v>52.89575531670933</v>
+        <v>52.15688763870295</v>
       </c>
       <c r="D21">
-        <v>-427.7334736039915</v>
+        <v>-442.6683050307546</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0008749999999999998</v>
       </c>
       <c r="B22">
-        <v>390.2837544764871</v>
+        <v>401.8147402785864</v>
       </c>
       <c r="C22">
-        <v>23.94145524162616</v>
+        <v>26.32408842596466</v>
       </c>
       <c r="D22">
-        <v>-414.2252097181133</v>
+        <v>-428.1388287045511</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0009166666666666664</v>
       </c>
       <c r="B23">
-        <v>408.8403103397448</v>
+        <v>412.6113853512117</v>
       </c>
       <c r="C23">
-        <v>6.644953612623652</v>
+        <v>8.796088160014108</v>
       </c>
       <c r="D23">
-        <v>-415.4852639523684</v>
+        <v>-421.4074735112257</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0009583333333333331</v>
       </c>
       <c r="B24">
-        <v>415.9972523325644</v>
+        <v>423.125679795347</v>
       </c>
       <c r="C24">
-        <v>-6.24184802436514</v>
+        <v>-8.491285550544234</v>
       </c>
       <c r="D24">
-        <v>-409.7554043081992</v>
+        <v>-414.6343942448028</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0009999999999999998</v>
       </c>
       <c r="B25">
-        <v>414.7541020742667</v>
+        <v>425.9313362557458</v>
       </c>
       <c r="C25">
-        <v>-23.6785332643763</v>
+        <v>-26.10219876080288</v>
       </c>
       <c r="D25">
-        <v>-391.0755688098903</v>
+        <v>-399.829137494943</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001041666666666666</v>
       </c>
       <c r="B26">
-        <v>428.5229258515416</v>
+        <v>445.5165263549072</v>
       </c>
       <c r="C26">
-        <v>-52.46352045247548</v>
+        <v>-51.36592972433907</v>
       </c>
       <c r="D26">
-        <v>-376.0594053990661</v>
+        <v>-394.1505966305681</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001083333333333333</v>
       </c>
       <c r="B27">
-        <v>455.2526060650497</v>
+        <v>459.0223497262979</v>
       </c>
       <c r="C27">
-        <v>-109.5980897474951</v>
+        <v>-111.0041399160866</v>
       </c>
       <c r="D27">
-        <v>-345.6545163175547</v>
+        <v>-348.0182098102113</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001125</v>
       </c>
       <c r="B28">
-        <v>494.6259435247052</v>
+        <v>505.4261452242058</v>
       </c>
       <c r="C28">
-        <v>-180.0489704188655</v>
+        <v>-187.2381551846097</v>
       </c>
       <c r="D28">
-        <v>-314.5769731058397</v>
+        <v>-318.1879900395961</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001166666666666666</v>
       </c>
       <c r="B29">
-        <v>525.1036518842748</v>
+        <v>546.2681117196855</v>
       </c>
       <c r="C29">
-        <v>-234.3146506291011</v>
+        <v>-244.6819320058736</v>
       </c>
       <c r="D29">
-        <v>-290.7890012551737</v>
+        <v>-301.586179713812</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001208333333333333</v>
       </c>
       <c r="B30">
-        <v>538.4647545266498</v>
+        <v>548.7007411273121</v>
       </c>
       <c r="C30">
-        <v>-259.6786220681327</v>
+        <v>-261.5098923177506</v>
       </c>
       <c r="D30">
-        <v>-278.7861324585172</v>
+        <v>-287.1908488095615</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.00125</v>
       </c>
       <c r="B31">
-        <v>551.6302022349156</v>
+        <v>559.2832175614496</v>
       </c>
       <c r="C31">
-        <v>-276.1575552286733</v>
+        <v>-279.5801733453743</v>
       </c>
       <c r="D31">
-        <v>-275.4726470062423</v>
+        <v>-279.7030442160753</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001291666666666666</v>
       </c>
       <c r="B32">
-        <v>539.0696823727129</v>
+        <v>545.4488421927138</v>
       </c>
       <c r="C32">
-        <v>-279.3017228095845</v>
+        <v>-285.2861492897488</v>
       </c>
       <c r="D32">
-        <v>-259.7679595631284</v>
+        <v>-260.1626929029649</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B33">
-        <v>523.7692999369524</v>
+        <v>540.9125860628658</v>
       </c>
       <c r="C33">
-        <v>-289.783217310662</v>
+        <v>-300.008828326842</v>
       </c>
       <c r="D33">
-        <v>-233.9860826262904</v>
+        <v>-240.9037577360237</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001374999999999999</v>
       </c>
       <c r="B34">
-        <v>493.7762011125577</v>
+        <v>515.3514417631242</v>
       </c>
       <c r="C34">
-        <v>-312.7713565481743</v>
+        <v>-322.7118427096662</v>
       </c>
       <c r="D34">
-        <v>-181.0048445643834</v>
+        <v>-192.639599053458</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001416666666666666</v>
       </c>
       <c r="B35">
-        <v>454.3566462738112</v>
+        <v>455.9181114906036</v>
       </c>
       <c r="C35">
-        <v>-344.1179499486092</v>
+        <v>-346.575162502924</v>
       </c>
       <c r="D35">
-        <v>-110.238696325202</v>
+        <v>-109.3429489876796</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001458333333333333</v>
       </c>
       <c r="B36">
-        <v>427.6244838846004</v>
+        <v>440.6566125604568</v>
       </c>
       <c r="C36">
-        <v>-374.5066453697803</v>
+        <v>-389.2944029027031</v>
       </c>
       <c r="D36">
-        <v>-53.11783851482009</v>
+        <v>-51.36220965775372</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001499999999999999</v>
       </c>
       <c r="B37">
-        <v>414.3868023584895</v>
+        <v>427.5892078841448</v>
       </c>
       <c r="C37">
-        <v>-390.540766321046</v>
+        <v>-402.1822205301762</v>
       </c>
       <c r="D37">
-        <v>-23.84603603744351</v>
+        <v>-25.40698735396865</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001541666666666666</v>
       </c>
       <c r="B38">
-        <v>415.6014626911992</v>
+        <v>421.3968674607377</v>
       </c>
       <c r="C38">
-        <v>-409.1167793203783</v>
+        <v>-412.281955081541</v>
       </c>
       <c r="D38">
-        <v>-6.48468337082096</v>
+        <v>-9.114912379196682</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B39">
-        <v>410.2904570448428</v>
+        <v>414.7075868901086</v>
       </c>
       <c r="C39">
-        <v>-416.7036051052478</v>
+        <v>-422.3865476405588</v>
       </c>
       <c r="D39">
-        <v>6.413148060405035</v>
+        <v>7.678960750450159</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001624999999999999</v>
       </c>
       <c r="B40">
-        <v>390.5692181194973</v>
+        <v>399.5384130266911</v>
       </c>
       <c r="C40">
-        <v>-414.1707206040528</v>
+        <v>-425.4254586731499</v>
       </c>
       <c r="D40">
-        <v>23.6015024845555</v>
+        <v>25.88704564645883</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B41">
-        <v>375.4638239075448</v>
+        <v>395.3864930931574</v>
       </c>
       <c r="C41">
-        <v>-427.8473534557946</v>
+        <v>-447.422778786233</v>
       </c>
       <c r="D41">
-        <v>52.38352954824977</v>
+        <v>52.03628569307561</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001708333333333333</v>
       </c>
       <c r="B42">
-        <v>345.1194679253753</v>
+        <v>348.2382417434867</v>
       </c>
       <c r="C42">
-        <v>-454.6243681146572</v>
+        <v>-460.6936239199024</v>
       </c>
       <c r="D42">
-        <v>109.504900189282</v>
+        <v>112.4553821764157</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001749999999999999</v>
       </c>
       <c r="B43">
-        <v>313.8206334000126</v>
+        <v>318.2848269664798</v>
       </c>
       <c r="C43">
-        <v>-493.6555534138984</v>
+        <v>-506.2034560466303</v>
       </c>
       <c r="D43">
-        <v>179.8349200138857</v>
+        <v>187.9186290801505</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001791666666666666</v>
       </c>
       <c r="B44">
-        <v>290.6925569568866</v>
+        <v>301.4280031925276</v>
       </c>
       <c r="C44">
-        <v>-525.0486762766058</v>
+        <v>-545.9735624288237</v>
       </c>
       <c r="D44">
-        <v>234.3561193197191</v>
+        <v>244.5455592362961</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001833333333333332</v>
       </c>
       <c r="B45">
-        <v>279.4002629687337</v>
+        <v>285.8555420478179</v>
       </c>
       <c r="C45">
-        <v>-539.5505897032115</v>
+        <v>-545.8258975718722</v>
       </c>
       <c r="D45">
-        <v>260.1503267344778</v>
+        <v>259.9703555240543</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001874999999999999</v>
       </c>
       <c r="B46">
-        <v>276.2826629894607</v>
+        <v>281.6026046311282</v>
       </c>
       <c r="C46">
-        <v>-553.2388092663996</v>
+        <v>-562.7373473592606</v>
       </c>
       <c r="D46">
-        <v>276.9561462769389</v>
+        <v>281.1347427281324</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B47">
-        <v>260.072184872121</v>
+        <v>262.5271336116925</v>
       </c>
       <c r="C47">
-        <v>-540.0230170695445</v>
+        <v>-550.3046429044898</v>
       </c>
       <c r="D47">
-        <v>279.9508321974235</v>
+        <v>287.7775092927973</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001958333333333332</v>
       </c>
       <c r="B48">
-        <v>234.2481917465559</v>
+        <v>240.8255900753828</v>
       </c>
       <c r="C48">
-        <v>-524.7092458641107</v>
+        <v>-541.4251433476772</v>
       </c>
       <c r="D48">
-        <v>290.4610541175548</v>
+        <v>300.5995532722944</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001999999999999999</v>
       </c>
       <c r="B49">
-        <v>180.5072908525245</v>
+        <v>191.4892771890525</v>
       </c>
       <c r="C49">
-        <v>-493.0016328752846</v>
+        <v>-513.4039760953033</v>
       </c>
       <c r="D49">
-        <v>312.4943420227601</v>
+        <v>321.9146989062507</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002041666666666666</v>
       </c>
       <c r="B50">
-        <v>110.008410069515</v>
+        <v>107.8843717434836</v>
       </c>
       <c r="C50">
-        <v>-453.5190503316061</v>
+        <v>-454.6419394650385</v>
       </c>
       <c r="D50">
-        <v>343.5106402620911</v>
+        <v>346.7575677215549</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B51">
-        <v>53.00468613207721</v>
+        <v>51.11584478134978</v>
       </c>
       <c r="C51">
-        <v>-426.9726527740664</v>
+        <v>-440.2841640844143</v>
       </c>
       <c r="D51">
-        <v>373.9679666419892</v>
+        <v>389.1683193030645</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002125</v>
       </c>
       <c r="B52">
-        <v>23.63507953079558</v>
+        <v>25.79378220300522</v>
       </c>
       <c r="C52">
-        <v>-413.4382436054804</v>
+        <v>-427.5495588108803</v>
       </c>
       <c r="D52">
-        <v>389.8031640746847</v>
+        <v>401.7557766078751</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B53">
-        <v>6.429931821116298</v>
+        <v>9.632573231930792</v>
       </c>
       <c r="C53">
-        <v>-415.1930013571651</v>
+        <v>-421.4733957648492</v>
       </c>
       <c r="D53">
-        <v>408.7630695360488</v>
+        <v>411.8408225329184</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002208333333333333</v>
       </c>
       <c r="B54">
-        <v>-6.148557140475816</v>
+        <v>-7.43777298382372</v>
       </c>
       <c r="C54">
-        <v>-410.1164474750726</v>
+        <v>-413.7082079106111</v>
       </c>
       <c r="D54">
-        <v>416.2650046155484</v>
+        <v>421.1459808944348</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.00225</v>
       </c>
       <c r="B55">
-        <v>-23.37881079752746</v>
+        <v>-26.23894891073398</v>
       </c>
       <c r="C55">
-        <v>-390.8307693900542</v>
+        <v>-398.7046961407374</v>
       </c>
       <c r="D55">
-        <v>414.2095801875817</v>
+        <v>424.9436450514714</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002291666666666667</v>
       </c>
       <c r="B56">
-        <v>-52.43371725689339</v>
+        <v>-52.66926300313168</v>
       </c>
       <c r="C56">
-        <v>-375.2540436992472</v>
+        <v>-394.0312758220592</v>
       </c>
       <c r="D56">
-        <v>427.6877609561406</v>
+        <v>446.7005388251909</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B57">
-        <v>-109.7278947091241</v>
+        <v>-112.8828489301131</v>
       </c>
       <c r="C57">
-        <v>-344.5709099594568</v>
+        <v>-348.1158515572218</v>
       </c>
       <c r="D57">
-        <v>454.2988046685809</v>
+        <v>460.9987004873349</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002375000000000001</v>
       </c>
       <c r="B58">
-        <v>-179.5814574477939</v>
+        <v>-187.0234422598788</v>
       </c>
       <c r="C58">
-        <v>-313.3744209431071</v>
+        <v>-317.7094987855409</v>
       </c>
       <c r="D58">
-        <v>492.9558783909009</v>
+        <v>504.7329410454196</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002416666666666668</v>
       </c>
       <c r="B59">
-        <v>-233.7677079229495</v>
+        <v>-243.7263749186192</v>
       </c>
       <c r="C59">
-        <v>-290.3974621415741</v>
+        <v>-300.363031869195</v>
       </c>
       <c r="D59">
-        <v>524.1651700645236</v>
+        <v>544.0894067878141</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002458333333333335</v>
       </c>
       <c r="B60">
-        <v>-259.3998650943175</v>
+        <v>-260.7638522283218</v>
       </c>
       <c r="C60">
-        <v>-279.0907898488339</v>
+        <v>-286.072783969043</v>
       </c>
       <c r="D60">
-        <v>538.4906549431514</v>
+        <v>546.8366361973649</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002500000000000001</v>
       </c>
       <c r="B61">
-        <v>-276.2638603799953</v>
+        <v>-279.6930104946108</v>
       </c>
       <c r="C61">
-        <v>-275.8018574681965</v>
+        <v>-280.7700638938867</v>
       </c>
       <c r="D61">
-        <v>552.0657178481919</v>
+        <v>560.4630743884975</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002541666666666668</v>
       </c>
       <c r="B62">
-        <v>-279.2990790630212</v>
+        <v>-286.0842106810325</v>
       </c>
       <c r="C62">
-        <v>-260.1549981878546</v>
+        <v>-262.7471508233551</v>
       </c>
       <c r="D62">
-        <v>539.4540772508758</v>
+        <v>548.8313615043876</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002583333333333335</v>
       </c>
       <c r="B63">
-        <v>-289.6500590522147</v>
+        <v>-300.611148571047</v>
       </c>
       <c r="C63">
-        <v>-234.3943863772958</v>
+        <v>-241.8452640784433</v>
       </c>
       <c r="D63">
-        <v>524.0444454295105</v>
+        <v>542.4564126494902</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002625000000000002</v>
       </c>
       <c r="B64">
-        <v>-312.9706084699494</v>
+        <v>-323.21160894476</v>
       </c>
       <c r="C64">
-        <v>-181.1527559123867</v>
+        <v>-191.6355688906852</v>
       </c>
       <c r="D64">
-        <v>494.1233643823361</v>
+        <v>514.8471778354451</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002666666666666669</v>
       </c>
       <c r="B65">
-        <v>-344.4891394633171</v>
+        <v>-347.8983422071096</v>
       </c>
       <c r="C65">
-        <v>-110.1087956034624</v>
+        <v>-109.0189828466026</v>
       </c>
       <c r="D65">
-        <v>454.5979350667795</v>
+        <v>456.9173250537122</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002708333333333336</v>
       </c>
       <c r="B66">
-        <v>-374.8722910874211</v>
+        <v>-390.5617637940922</v>
       </c>
       <c r="C66">
-        <v>-52.83342386142475</v>
+        <v>-52.09665699329123</v>
       </c>
       <c r="D66">
-        <v>427.7057149488459</v>
+        <v>442.6584207873834</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002750000000000002</v>
       </c>
       <c r="B67">
-        <v>-390.3042760262508</v>
+        <v>-401.8127907908111</v>
       </c>
       <c r="C67">
-        <v>-23.91245461565617</v>
+        <v>-26.30091626514732</v>
       </c>
       <c r="D67">
-        <v>414.2167306419069</v>
+        <v>428.1137070559583</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002791666666666669</v>
       </c>
       <c r="B68">
-        <v>-408.8664094787547</v>
+        <v>-412.6389667814333</v>
       </c>
       <c r="C68">
-        <v>-6.62454012644352</v>
+        <v>-8.772526719397177</v>
       </c>
       <c r="D68">
-        <v>415.4909496051982</v>
+        <v>421.4114935008304</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002833333333333336</v>
       </c>
       <c r="B69">
-        <v>-415.9933473537837</v>
+        <v>-423.1252660848279</v>
       </c>
       <c r="C69">
-        <v>6.261800138778426</v>
+        <v>8.516896054469015</v>
       </c>
       <c r="D69">
-        <v>409.7315472150053</v>
+        <v>414.6083700303589</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002875000000000003</v>
       </c>
       <c r="B70">
-        <v>-414.7633011478471</v>
+        <v>-425.9442677496585</v>
       </c>
       <c r="C70">
-        <v>23.70847858745816</v>
+        <v>26.13227285880312</v>
       </c>
       <c r="D70">
-        <v>391.0548225603889</v>
+        <v>399.8119948908554</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00291666666666667</v>
       </c>
       <c r="B71">
-        <v>-428.5477426304417</v>
+        <v>-445.547194659268</v>
       </c>
       <c r="C71">
-        <v>52.52479293379153</v>
+        <v>51.42200442605274</v>
       </c>
       <c r="D71">
-        <v>376.0229496966501</v>
+        <v>394.1251902332152</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002958333333333337</v>
       </c>
       <c r="B72">
-        <v>-455.3037844171027</v>
+        <v>-459.0478166219502</v>
       </c>
       <c r="C72">
-        <v>109.693336434755</v>
+        <v>111.1021358452214</v>
       </c>
       <c r="D72">
-        <v>345.6104479823477</v>
+        <v>347.9456807767288</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B73">
-        <v>-494.6878277468321</v>
+        <v>-505.5134618206874</v>
       </c>
       <c r="C73">
-        <v>180.1524780095061</v>
+        <v>187.3515346128718</v>
       </c>
       <c r="D73">
-        <v>314.535349737326</v>
+        <v>318.1619272078156</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00304166666666667</v>
       </c>
       <c r="B74">
-        <v>-525.1216677649575</v>
+        <v>-546.2874967992641</v>
       </c>
       <c r="C74">
-        <v>234.3613992823512</v>
+        <v>244.7246841538586</v>
       </c>
       <c r="D74">
-        <v>290.7602684826062</v>
+        <v>301.5628126454054</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003083333333333337</v>
       </c>
       <c r="B75">
-        <v>-538.4931864888274</v>
+        <v>-548.7109271275026</v>
       </c>
       <c r="C75">
-        <v>259.7127993699936</v>
+        <v>261.5353044159011</v>
       </c>
       <c r="D75">
-        <v>278.7803871188338</v>
+        <v>287.1756227116016</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003125000000000004</v>
       </c>
       <c r="B76">
-        <v>-551.6311869687913</v>
+        <v>-559.284239434136</v>
       </c>
       <c r="C76">
-        <v>276.1685913251496</v>
+        <v>279.5978356135745</v>
       </c>
       <c r="D76">
-        <v>275.4625956436417</v>
+        <v>279.6864038205615</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.003166666666666671</v>
       </c>
       <c r="B77">
-        <v>-539.0386065452828</v>
+        <v>-545.4286707567423</v>
       </c>
       <c r="C77">
-        <v>279.3049181109914</v>
+        <v>285.2957814186083</v>
       </c>
       <c r="D77">
-        <v>259.7336884342915</v>
+        <v>260.1328893381341</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003208333333333338</v>
       </c>
       <c r="B78">
-        <v>-523.7519334760899</v>
+        <v>-540.9174222223837</v>
       </c>
       <c r="C78">
-        <v>289.8107229373678</v>
+        <v>300.0416111511548</v>
       </c>
       <c r="D78">
-        <v>233.9412105387221</v>
+        <v>240.8758110712289</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003250000000000005</v>
       </c>
       <c r="B79">
-        <v>-493.714949596294</v>
+        <v>-515.2584092377712</v>
       </c>
       <c r="C79">
-        <v>312.8136506528345</v>
+        <v>322.740869353443</v>
       </c>
       <c r="D79">
-        <v>180.9012989434595</v>
+        <v>192.5175398843282</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003291666666666671</v>
       </c>
       <c r="B80">
-        <v>-454.3069435614085</v>
+        <v>-455.8698483955553</v>
       </c>
       <c r="C80">
-        <v>344.1630034370432</v>
+        <v>346.6289788179711</v>
       </c>
       <c r="D80">
-        <v>110.1439401243652</v>
+        <v>109.2408695775843</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003333333333333338</v>
       </c>
       <c r="B81">
-        <v>-427.5948276385075</v>
+        <v>-440.6487195705131</v>
       </c>
       <c r="C81">
-        <v>374.5403168889558</v>
+        <v>389.347850614961</v>
       </c>
       <c r="D81">
-        <v>53.0545107495517</v>
+        <v>51.30086895555218</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003375000000000005</v>
       </c>
       <c r="B82">
-        <v>-414.3779872676095</v>
+        <v>-427.5624588707189</v>
       </c>
       <c r="C82">
-        <v>390.5607076378463</v>
+        <v>402.1778159130796</v>
       </c>
       <c r="D82">
-        <v>23.81727962976311</v>
+        <v>25.38464295763933</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003416666666666672</v>
       </c>
       <c r="B83">
-        <v>-415.6057468295046</v>
+        <v>-421.4035978525053</v>
       </c>
       <c r="C83">
-        <v>409.1414254223814</v>
+        <v>412.310471133289</v>
       </c>
       <c r="D83">
-        <v>6.46432140712318</v>
+        <v>9.093126719216258</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003458333333333339</v>
       </c>
       <c r="B84">
-        <v>-410.2664919432769</v>
+        <v>-414.6805881291095</v>
       </c>
       <c r="C84">
-        <v>416.6995220648581</v>
+        <v>422.3849686924599</v>
       </c>
       <c r="D84">
-        <v>-6.43303012158114</v>
+        <v>-7.704380563350327</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003500000000000006</v>
       </c>
       <c r="B85">
-        <v>-390.5503128079543</v>
+        <v>-399.5224849920822</v>
       </c>
       <c r="C85">
-        <v>414.1812881028527</v>
+        <v>425.4411145226552</v>
       </c>
       <c r="D85">
-        <v>-23.63097529489842</v>
+        <v>-25.91862953057299</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003541666666666673</v>
       </c>
       <c r="B86">
-        <v>-375.4290930433575</v>
+        <v>-395.3605156117522</v>
       </c>
       <c r="C86">
-        <v>427.8748837535154</v>
+        <v>447.4536532552308</v>
       </c>
       <c r="D86">
-        <v>-52.44579071015787</v>
+        <v>-52.09313764347856</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003583333333333339</v>
       </c>
       <c r="B87">
-        <v>-345.0733578161446</v>
+        <v>-348.1677394703122</v>
       </c>
       <c r="C87">
-        <v>454.6730877943123</v>
+        <v>460.7229476830479</v>
       </c>
       <c r="D87">
-        <v>-109.5997299781677</v>
+        <v>-112.5552082127357</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003625000000000006</v>
       </c>
       <c r="B88">
-        <v>-313.7796945571779</v>
+        <v>-318.2573496067174</v>
       </c>
       <c r="C88">
-        <v>493.7177195179419</v>
+        <v>506.2874369761353</v>
       </c>
       <c r="D88">
-        <v>-179.938024960764</v>
+        <v>-188.030087369418</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003666666666666673</v>
       </c>
       <c r="B89">
-        <v>-290.6660363579079</v>
+        <v>-301.4025759114417</v>
       </c>
       <c r="C89">
-        <v>525.0702044219953</v>
+        <v>545.988179283424</v>
       </c>
       <c r="D89">
-        <v>-234.4041680640874</v>
+        <v>-244.5856033719824</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00370833333333334</v>
       </c>
       <c r="B90">
-        <v>-279.3934909712842</v>
+        <v>-285.8431999480035</v>
       </c>
       <c r="C90">
-        <v>539.5768670149441</v>
+        <v>545.8414222690814</v>
       </c>
       <c r="D90">
-        <v>-260.1833760436598</v>
+        <v>-259.9982223210778</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage4000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage4000.xlsx
@@ -408,13 +408,13 @@
         <v>4.166666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>-262.5559306410993</v>
+        <v>-266.3762929564178</v>
       </c>
       <c r="C2">
-        <v>550.3221935913489</v>
+        <v>553.3838033098049</v>
       </c>
       <c r="D2">
-        <v>-287.7662629502495</v>
+        <v>-287.007510353387</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B3">
-        <v>-240.8574476200914</v>
+        <v>-240.3295090797414</v>
       </c>
       <c r="C3">
-        <v>541.4255799489404</v>
+        <v>538.4491742900835</v>
       </c>
       <c r="D3">
-        <v>-300.5681323288489</v>
+        <v>-298.1196652103421</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.000125</v>
       </c>
       <c r="B4">
-        <v>-191.6135174417916</v>
+        <v>-185.373803821795</v>
       </c>
       <c r="C4">
-        <v>513.5020971939152</v>
+        <v>506.2354673903441</v>
       </c>
       <c r="D4">
-        <v>-321.8885797521236</v>
+        <v>-320.8616635685491</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B5">
-        <v>-107.9835898381793</v>
+        <v>-112.7176421407883</v>
       </c>
       <c r="C5">
-        <v>454.6859569061347</v>
+        <v>464.6245071467054</v>
       </c>
       <c r="D5">
-        <v>-346.7023670679555</v>
+        <v>-351.906865005917</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0002083333333333333</v>
       </c>
       <c r="B6">
-        <v>-51.17711105473268</v>
+        <v>-54.34986761526096</v>
       </c>
       <c r="C6">
-        <v>440.2963638376409</v>
+        <v>437.96025715683</v>
       </c>
       <c r="D6">
-        <v>-389.1192527829082</v>
+        <v>-383.6103895415691</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.00025</v>
       </c>
       <c r="B7">
-        <v>-25.81456606012168</v>
+        <v>-24.30261895592979</v>
       </c>
       <c r="C7">
-        <v>427.5730708355964</v>
+        <v>423.3369778613438</v>
       </c>
       <c r="D7">
-        <v>-401.7585047754746</v>
+        <v>-399.034358905414</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002916666666666667</v>
       </c>
       <c r="B8">
-        <v>-9.655329617838078</v>
+        <v>-6.730305886759623</v>
       </c>
       <c r="C8">
-        <v>421.4670298357826</v>
+        <v>426.9486154154628</v>
       </c>
       <c r="D8">
-        <v>-411.8117002179446</v>
+        <v>-420.2183095287031</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B9">
-        <v>7.411734184145644</v>
+        <v>6.351393597431326</v>
       </c>
       <c r="C9">
-        <v>413.7346883301225</v>
+        <v>420.7005586096307</v>
       </c>
       <c r="D9">
-        <v>-421.1464225142682</v>
+        <v>-427.0519522070621</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003750000000000001</v>
       </c>
       <c r="B10">
-        <v>26.20653967746854</v>
+        <v>24.19704686855096</v>
       </c>
       <c r="C10">
-        <v>398.7220401542611</v>
+        <v>400.5668348330104</v>
       </c>
       <c r="D10">
-        <v>-424.9285798317296</v>
+        <v>-424.7638817015614</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0004166666666666667</v>
       </c>
       <c r="B11">
-        <v>52.61191869898043</v>
+        <v>53.80954263477123</v>
       </c>
       <c r="C11">
-        <v>394.0575582286374</v>
+        <v>385.3241577564836</v>
       </c>
       <c r="D11">
-        <v>-446.6694769276179</v>
+        <v>-439.1337003912548</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004583333333333334</v>
       </c>
       <c r="B12">
-        <v>112.7853648669175</v>
+        <v>112.6104853460219</v>
       </c>
       <c r="C12">
-        <v>348.1853096779571</v>
+        <v>353.0946191306269</v>
       </c>
       <c r="D12">
-        <v>-460.9706745448746</v>
+        <v>-465.7051044766488</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B13">
-        <v>186.9131960706682</v>
+        <v>183.9608877569876</v>
       </c>
       <c r="C13">
-        <v>317.7377279225753</v>
+        <v>321.364498452945</v>
       </c>
       <c r="D13">
-        <v>-504.6509239932435</v>
+        <v>-505.3253862099326</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0005416666666666668</v>
       </c>
       <c r="B14">
-        <v>243.683481977445</v>
+        <v>239.6629611804222</v>
       </c>
       <c r="C14">
-        <v>300.3867675534464</v>
+        <v>297.7585305680639</v>
       </c>
       <c r="D14">
-        <v>-544.0702495308914</v>
+        <v>-537.421491748486</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B15">
-        <v>260.7369223244913</v>
+        <v>265.9066504094543</v>
       </c>
       <c r="C15">
-        <v>286.0858312449794</v>
+        <v>286.0070951190257</v>
       </c>
       <c r="D15">
-        <v>-546.8227535694707</v>
+        <v>-551.91374552848</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.000625</v>
       </c>
       <c r="B16">
-        <v>279.675511718488</v>
+        <v>283.7871167801637</v>
       </c>
       <c r="C16">
-        <v>280.7852154844975</v>
+        <v>283.4620044070091</v>
       </c>
       <c r="D16">
-        <v>-560.4607272029855</v>
+        <v>-567.2491211871728</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B17">
-        <v>286.0742127424845</v>
+        <v>286.1459247875309</v>
       </c>
       <c r="C17">
-        <v>262.7757915392898</v>
+        <v>266.26824149245</v>
       </c>
       <c r="D17">
-        <v>-548.8500042817743</v>
+        <v>-552.4141662799809</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0007083333333333333</v>
       </c>
       <c r="B18">
-        <v>300.5752295774564</v>
+        <v>297.2900834203834</v>
       </c>
       <c r="C18">
-        <v>241.8757316791504</v>
+        <v>240.4949916012961</v>
       </c>
       <c r="D18">
-        <v>-542.4509612566067</v>
+        <v>-537.7850750216796</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0007499999999999999</v>
       </c>
       <c r="B19">
-        <v>323.1852295377167</v>
+        <v>321.3691510200167</v>
       </c>
       <c r="C19">
-        <v>191.7609691288463</v>
+        <v>186.106237130102</v>
       </c>
       <c r="D19">
-        <v>-514.9461986665631</v>
+        <v>-507.4753881501188</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007916666666666665</v>
       </c>
       <c r="B20">
-        <v>347.8433912557902</v>
+        <v>353.0598756984548</v>
       </c>
       <c r="C20">
-        <v>109.1179362696942</v>
+        <v>112.8180754645636</v>
       </c>
       <c r="D20">
-        <v>-456.9613275254844</v>
+        <v>-465.8779511630183</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0008333333333333332</v>
       </c>
       <c r="B21">
-        <v>390.5114173920516</v>
+        <v>384.4593401901976</v>
       </c>
       <c r="C21">
-        <v>52.15688763870295</v>
+        <v>54.21610767287314</v>
       </c>
       <c r="D21">
-        <v>-442.6683050307546</v>
+        <v>-438.6754478630708</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0008749999999999998</v>
       </c>
       <c r="B22">
-        <v>401.8147402785864</v>
+        <v>399.5033361487545</v>
       </c>
       <c r="C22">
-        <v>26.32408842596466</v>
+        <v>24.57414003719903</v>
       </c>
       <c r="D22">
-        <v>-428.1388287045511</v>
+        <v>-424.0774761859535</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0009166666666666664</v>
       </c>
       <c r="B23">
-        <v>412.6113853512117</v>
+        <v>420.343130007972</v>
       </c>
       <c r="C23">
-        <v>8.796088160014108</v>
+        <v>6.798641168828652</v>
       </c>
       <c r="D23">
-        <v>-421.4074735112257</v>
+        <v>-427.1417711768007</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0009583333333333331</v>
       </c>
       <c r="B24">
-        <v>423.125679795347</v>
+        <v>426.7723517932117</v>
       </c>
       <c r="C24">
-        <v>-8.491285550544234</v>
+        <v>-6.588020634137877</v>
       </c>
       <c r="D24">
-        <v>-414.6343942448028</v>
+        <v>-420.1843311590738</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0009999999999999998</v>
       </c>
       <c r="B25">
-        <v>425.9313362557458</v>
+        <v>425.2921604582747</v>
       </c>
       <c r="C25">
-        <v>-26.10219876080288</v>
+        <v>-24.57132745759206</v>
       </c>
       <c r="D25">
-        <v>-399.829137494943</v>
+        <v>-400.7208330006827</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001041666666666666</v>
       </c>
       <c r="B26">
-        <v>445.5165263549072</v>
+        <v>439.912961946289</v>
       </c>
       <c r="C26">
-        <v>-51.36592972433907</v>
+        <v>-53.87555393694123</v>
       </c>
       <c r="D26">
-        <v>-394.1505966305681</v>
+        <v>-386.0374080093478</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001083333333333333</v>
       </c>
       <c r="B27">
-        <v>459.0223497262979</v>
+        <v>466.7645920563224</v>
       </c>
       <c r="C27">
-        <v>-111.0041399160866</v>
+        <v>-112.5457556202092</v>
       </c>
       <c r="D27">
-        <v>-348.0182098102113</v>
+        <v>-354.2188364361132</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001125</v>
       </c>
       <c r="B28">
-        <v>505.4261452242058</v>
+        <v>507.031774056239</v>
       </c>
       <c r="C28">
-        <v>-187.2381551846097</v>
+        <v>-184.563746840859</v>
       </c>
       <c r="D28">
-        <v>-318.1879900395961</v>
+        <v>-322.4680272153801</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001166666666666666</v>
       </c>
       <c r="B29">
-        <v>546.2681117196855</v>
+        <v>538.3146374339854</v>
       </c>
       <c r="C29">
-        <v>-244.6819320058736</v>
+        <v>-240.2806598344579</v>
       </c>
       <c r="D29">
-        <v>-301.586179713812</v>
+        <v>-298.0339775995275</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001208333333333333</v>
       </c>
       <c r="B30">
-        <v>548.7007411273121</v>
+        <v>552.1968802644656</v>
       </c>
       <c r="C30">
-        <v>-261.5098923177506</v>
+        <v>-266.286364637256</v>
       </c>
       <c r="D30">
-        <v>-287.1908488095615</v>
+        <v>-285.9105156272096</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.00125</v>
       </c>
       <c r="B31">
-        <v>559.2832175614496</v>
+        <v>566.8591813131729</v>
       </c>
       <c r="C31">
-        <v>-279.5801733453743</v>
+        <v>-283.6772039557856</v>
       </c>
       <c r="D31">
-        <v>-279.7030442160753</v>
+        <v>-283.1819773573874</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001291666666666666</v>
       </c>
       <c r="B32">
-        <v>545.4488421927138</v>
+        <v>551.8869992069342</v>
       </c>
       <c r="C32">
-        <v>-285.2861492897488</v>
+        <v>-286.1057962720174</v>
       </c>
       <c r="D32">
-        <v>-260.1626929029649</v>
+        <v>-265.7812029349169</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B33">
-        <v>540.9125860628658</v>
+        <v>537.2528643487638</v>
       </c>
       <c r="C33">
-        <v>-300.008828326842</v>
+        <v>-297.4009728479014</v>
       </c>
       <c r="D33">
-        <v>-240.9037577360237</v>
+        <v>-239.8518915008624</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001374999999999999</v>
       </c>
       <c r="B34">
-        <v>515.3514417631242</v>
+        <v>506.921342975707</v>
       </c>
       <c r="C34">
-        <v>-322.7118427096662</v>
+        <v>-321.1482194813282</v>
       </c>
       <c r="D34">
-        <v>-192.639599053458</v>
+        <v>-185.7731234943788</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001416666666666666</v>
       </c>
       <c r="B35">
-        <v>455.9181114906036</v>
+        <v>465.5993236356071</v>
       </c>
       <c r="C35">
-        <v>-346.575162502924</v>
+        <v>-352.6401394829443</v>
       </c>
       <c r="D35">
-        <v>-109.3429489876796</v>
+        <v>-112.9591841526628</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001458333333333333</v>
       </c>
       <c r="B36">
-        <v>440.6566125604568</v>
+        <v>438.4499317079314</v>
       </c>
       <c r="C36">
-        <v>-389.2944029027031</v>
+        <v>-384.0301595429411</v>
       </c>
       <c r="D36">
-        <v>-51.36220965775372</v>
+        <v>-54.41977216499026</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001499999999999999</v>
       </c>
       <c r="B37">
-        <v>427.5892078841448</v>
+        <v>424.1442740671554</v>
       </c>
       <c r="C37">
-        <v>-402.1822205301762</v>
+        <v>-399.7178183722594</v>
       </c>
       <c r="D37">
-        <v>-25.40698735396865</v>
+        <v>-24.42645569489588</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001541666666666666</v>
       </c>
       <c r="B38">
-        <v>421.3968674607377</v>
+        <v>427.131805835923</v>
       </c>
       <c r="C38">
-        <v>-412.281955081541</v>
+        <v>-420.5006470433598</v>
       </c>
       <c r="D38">
-        <v>-9.114912379196682</v>
+        <v>-6.631158792563269</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B39">
-        <v>414.7075868901086</v>
+        <v>420.7922282857755</v>
       </c>
       <c r="C39">
-        <v>-422.3865476405588</v>
+        <v>-427.3562968342829</v>
       </c>
       <c r="D39">
-        <v>7.678960750450159</v>
+        <v>6.564068548507464</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001624999999999999</v>
       </c>
       <c r="B40">
-        <v>399.5384130266911</v>
+        <v>400.0994884879796</v>
       </c>
       <c r="C40">
-        <v>-425.4254586731499</v>
+        <v>-424.4523991216289</v>
       </c>
       <c r="D40">
-        <v>25.88704564645883</v>
+        <v>24.3529106336493</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B41">
-        <v>395.3864930931574</v>
+        <v>385.4009596668373</v>
       </c>
       <c r="C41">
-        <v>-447.422778786233</v>
+        <v>-439.2113383621688</v>
       </c>
       <c r="D41">
-        <v>52.03628569307561</v>
+        <v>53.81037869533145</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001708333333333333</v>
       </c>
       <c r="B42">
-        <v>348.2382417434867</v>
+        <v>353.6297592770022</v>
       </c>
       <c r="C42">
-        <v>-460.6936239199024</v>
+        <v>-466.2526154857317</v>
       </c>
       <c r="D42">
-        <v>112.4553821764157</v>
+        <v>112.6228562087295</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001749999999999999</v>
       </c>
       <c r="B43">
-        <v>318.2848269664798</v>
+        <v>321.7581589704069</v>
       </c>
       <c r="C43">
-        <v>-506.2034560466303</v>
+        <v>-506.1069681822819</v>
       </c>
       <c r="D43">
-        <v>187.9186290801505</v>
+        <v>184.348809211875</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001791666666666666</v>
       </c>
       <c r="B44">
-        <v>301.4280031925276</v>
+        <v>297.877023092985</v>
       </c>
       <c r="C44">
-        <v>-545.9735624288237</v>
+        <v>-538.0702279909742</v>
       </c>
       <c r="D44">
-        <v>244.5455592362961</v>
+        <v>240.1932048979891</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001833333333333332</v>
       </c>
       <c r="B45">
-        <v>285.8555420478179</v>
+        <v>286.3233245183344</v>
       </c>
       <c r="C45">
-        <v>-545.8258975718722</v>
+        <v>-553.0234627350369</v>
       </c>
       <c r="D45">
-        <v>259.9703555240543</v>
+        <v>266.7001382167026</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001874999999999999</v>
       </c>
       <c r="B46">
-        <v>281.6026046311282</v>
+        <v>284.0096912896481</v>
       </c>
       <c r="C46">
-        <v>-562.7373473592606</v>
+        <v>-568.5999658492958</v>
       </c>
       <c r="D46">
-        <v>281.1347427281324</v>
+        <v>284.5902745596476</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B47">
-        <v>262.5271336116925</v>
+        <v>266.3419053526096</v>
       </c>
       <c r="C47">
-        <v>-550.3046429044898</v>
+        <v>-553.3552665097502</v>
       </c>
       <c r="D47">
-        <v>287.7775092927973</v>
+        <v>287.0133611571407</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001958333333333332</v>
       </c>
       <c r="B48">
-        <v>240.8255900753828</v>
+        <v>240.2820637664676</v>
       </c>
       <c r="C48">
-        <v>-541.4251433476772</v>
+        <v>-538.4267050417635</v>
       </c>
       <c r="D48">
-        <v>300.5995532722944</v>
+        <v>298.1446412752958</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001999999999999999</v>
       </c>
       <c r="B49">
-        <v>191.4892771890525</v>
+        <v>185.2668538964953</v>
       </c>
       <c r="C49">
-        <v>-513.4039760953033</v>
+        <v>-506.1702988710531</v>
       </c>
       <c r="D49">
-        <v>321.9146989062507</v>
+        <v>320.9034449745578</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.002041666666666666</v>
       </c>
       <c r="B50">
-        <v>107.8843717434836</v>
+        <v>112.6215648217072</v>
       </c>
       <c r="C50">
-        <v>-454.6419394650385</v>
+        <v>-464.5751566809842</v>
       </c>
       <c r="D50">
-        <v>346.7575677215549</v>
+        <v>351.953591859277</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B51">
-        <v>51.11584478134978</v>
+        <v>54.28470537772847</v>
       </c>
       <c r="C51">
-        <v>-440.2841640844143</v>
+        <v>-437.9301343534332</v>
       </c>
       <c r="D51">
-        <v>389.1683193030645</v>
+        <v>383.6454289757047</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.002125</v>
       </c>
       <c r="B52">
-        <v>25.79378220300522</v>
+        <v>24.2733016773311</v>
       </c>
       <c r="C52">
-        <v>-427.5495588108803</v>
+        <v>-423.3312184252993</v>
       </c>
       <c r="D52">
-        <v>401.7557766078751</v>
+        <v>399.0579167479682</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B53">
-        <v>9.632573231930792</v>
+        <v>6.710123225152074</v>
       </c>
       <c r="C53">
-        <v>-421.4733957648492</v>
+        <v>-426.9571736224614</v>
       </c>
       <c r="D53">
-        <v>411.8408225329184</v>
+        <v>420.2470503973093</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.002208333333333333</v>
       </c>
       <c r="B54">
-        <v>-7.43777298382372</v>
+        <v>-6.372417259948861</v>
       </c>
       <c r="C54">
-        <v>-413.7082079106111</v>
+        <v>-420.6715185740544</v>
       </c>
       <c r="D54">
-        <v>421.1459808944348</v>
+        <v>427.0439358340033</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.00225</v>
       </c>
       <c r="B55">
-        <v>-26.23894891073398</v>
+        <v>-24.22721855992961</v>
       </c>
       <c r="C55">
-        <v>-398.7046961407374</v>
+        <v>-400.5466803379512</v>
       </c>
       <c r="D55">
-        <v>424.9436450514714</v>
+        <v>424.7738988978808</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002291666666666667</v>
       </c>
       <c r="B56">
-        <v>-52.66926300313168</v>
+        <v>-53.87316581805413</v>
       </c>
       <c r="C56">
-        <v>-394.0312758220592</v>
+        <v>-385.2861560815475</v>
       </c>
       <c r="D56">
-        <v>446.7005388251909</v>
+        <v>439.1593218996017</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B57">
-        <v>-112.8828489301131</v>
+        <v>-112.707571744991</v>
       </c>
       <c r="C57">
-        <v>-348.1158515572218</v>
+        <v>-353.0483096031871</v>
       </c>
       <c r="D57">
-        <v>460.9987004873349</v>
+        <v>465.7558813481781</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002375000000000001</v>
       </c>
       <c r="B58">
-        <v>-187.0234422598788</v>
+        <v>-184.0656848357292</v>
       </c>
       <c r="C58">
-        <v>-317.7094987855409</v>
+        <v>-321.3220554985862</v>
       </c>
       <c r="D58">
-        <v>504.7329410454196</v>
+        <v>505.3877403343154</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002416666666666668</v>
       </c>
       <c r="B59">
-        <v>-243.7263749186192</v>
+        <v>-239.7123741102675</v>
       </c>
       <c r="C59">
-        <v>-300.363031869195</v>
+        <v>-297.7323030326587</v>
       </c>
       <c r="D59">
-        <v>544.0894067878141</v>
+        <v>537.4446771429261</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002458333333333335</v>
       </c>
       <c r="B60">
-        <v>-260.7638522283218</v>
+        <v>-265.9425226403231</v>
       </c>
       <c r="C60">
-        <v>-286.072783969043</v>
+        <v>-286.001312318584</v>
       </c>
       <c r="D60">
-        <v>546.8366361973649</v>
+        <v>551.943834958907</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002500000000000001</v>
       </c>
       <c r="B61">
-        <v>-279.6930104946108</v>
+        <v>-283.797787127709</v>
       </c>
       <c r="C61">
-        <v>-280.7700638938867</v>
+        <v>-283.4518281043455</v>
       </c>
       <c r="D61">
-        <v>560.4630743884975</v>
+        <v>567.2496152320546</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002541666666666668</v>
       </c>
       <c r="B62">
-        <v>-286.0842106810325</v>
+        <v>-286.1491136747982</v>
       </c>
       <c r="C62">
-        <v>-262.7471508233551</v>
+        <v>-266.2329571069861</v>
       </c>
       <c r="D62">
-        <v>548.8313615043876</v>
+        <v>552.3820707817843</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002583333333333335</v>
       </c>
       <c r="B63">
-        <v>-300.611148571047</v>
+        <v>-297.3175192567826</v>
       </c>
       <c r="C63">
-        <v>-241.8452640784433</v>
+        <v>-240.4482411182204</v>
       </c>
       <c r="D63">
-        <v>542.4564126494902</v>
+        <v>537.7657603750031</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002625000000000002</v>
       </c>
       <c r="B64">
-        <v>-323.21160894476</v>
+        <v>-321.412777516056</v>
       </c>
       <c r="C64">
-        <v>-191.6355688906852</v>
+        <v>-185.9992456966675</v>
       </c>
       <c r="D64">
-        <v>514.8471778354451</v>
+        <v>507.4120232127235</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002666666666666669</v>
       </c>
       <c r="B65">
-        <v>-347.8983422071096</v>
+        <v>-353.1058001111879</v>
       </c>
       <c r="C65">
-        <v>-109.0189828466026</v>
+        <v>-112.7205974197454</v>
       </c>
       <c r="D65">
-        <v>456.9173250537122</v>
+        <v>465.8263975309334</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002708333333333336</v>
       </c>
       <c r="B66">
-        <v>-390.5617637940922</v>
+        <v>-384.4983144536493</v>
       </c>
       <c r="C66">
-        <v>-52.09665699329123</v>
+        <v>-54.15231485253135</v>
       </c>
       <c r="D66">
-        <v>442.6584207873834</v>
+        <v>438.6506293061807</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002750000000000002</v>
       </c>
       <c r="B67">
-        <v>-401.8127907908111</v>
+        <v>-399.5200637934624</v>
       </c>
       <c r="C67">
-        <v>-26.30091626514732</v>
+        <v>-24.54415512902541</v>
       </c>
       <c r="D67">
-        <v>428.1137070559583</v>
+        <v>424.0642189224878</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002791666666666669</v>
       </c>
       <c r="B68">
-        <v>-412.6389667814333</v>
+        <v>-420.3724823585584</v>
       </c>
       <c r="C68">
-        <v>-8.772526719397177</v>
+        <v>-6.778328072993276</v>
       </c>
       <c r="D68">
-        <v>421.4114935008304</v>
+        <v>427.1508104315517</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002833333333333336</v>
       </c>
       <c r="B69">
-        <v>-423.1252660848279</v>
+        <v>-426.764849082881</v>
       </c>
       <c r="C69">
-        <v>8.516896054469015</v>
+        <v>6.609698735134401</v>
       </c>
       <c r="D69">
-        <v>414.6083700303589</v>
+        <v>420.1551503477466</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002875000000000003</v>
       </c>
       <c r="B70">
-        <v>-425.9442677496585</v>
+        <v>-425.3044486979201</v>
       </c>
       <c r="C70">
-        <v>26.13227285880312</v>
+        <v>24.60126272218977</v>
       </c>
       <c r="D70">
-        <v>399.8119948908554</v>
+        <v>400.7031859757303</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00291666666666667</v>
       </c>
       <c r="B71">
-        <v>-445.547194659268</v>
+        <v>-439.9406765131685</v>
       </c>
       <c r="C71">
-        <v>51.42200442605274</v>
+        <v>53.9389367617682</v>
       </c>
       <c r="D71">
-        <v>394.1251902332152</v>
+        <v>386.0017397514002</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002958333333333337</v>
       </c>
       <c r="B72">
-        <v>-459.0478166219502</v>
+        <v>-466.814457340516</v>
       </c>
       <c r="C72">
-        <v>111.1021358452214</v>
+        <v>112.6428775321359</v>
       </c>
       <c r="D72">
-        <v>347.9456807767288</v>
+        <v>354.1715798083802</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.003000000000000004</v>
       </c>
       <c r="B73">
-        <v>-505.5134618206874</v>
+        <v>-507.0947437138208</v>
       </c>
       <c r="C73">
-        <v>187.3515346128718</v>
+        <v>184.669871755967</v>
       </c>
       <c r="D73">
-        <v>318.1619272078156</v>
+        <v>322.4248719578538</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00304166666666667</v>
       </c>
       <c r="B74">
-        <v>-546.2874967992641</v>
+        <v>-538.3367464315797</v>
       </c>
       <c r="C74">
-        <v>244.7246841538586</v>
+        <v>240.3296181295245</v>
       </c>
       <c r="D74">
-        <v>301.5628126454054</v>
+        <v>298.0071283020553</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.003083333333333337</v>
       </c>
       <c r="B75">
-        <v>-548.7109271275026</v>
+        <v>-552.2232900373695</v>
       </c>
       <c r="C75">
-        <v>261.5353044159011</v>
+        <v>266.3202584903407</v>
       </c>
       <c r="D75">
-        <v>287.1756227116016</v>
+        <v>285.9030315470287</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.003125000000000004</v>
       </c>
       <c r="B76">
-        <v>-559.284239434136</v>
+        <v>-566.861107719138</v>
       </c>
       <c r="C76">
-        <v>279.5978356135745</v>
+        <v>283.6889244671698</v>
       </c>
       <c r="D76">
-        <v>279.6864038205615</v>
+        <v>283.1721832519682</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.003166666666666671</v>
       </c>
       <c r="B77">
-        <v>-545.4286707567423</v>
+        <v>-551.8582211769597</v>
       </c>
       <c r="C77">
-        <v>285.2957814186083</v>
+        <v>286.1116382566046</v>
       </c>
       <c r="D77">
-        <v>260.1328893381341</v>
+        <v>265.7465829203551</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.003208333333333338</v>
       </c>
       <c r="B78">
-        <v>-540.9174222223837</v>
+        <v>-537.2321178450406</v>
       </c>
       <c r="C78">
-        <v>300.0416111511548</v>
+        <v>297.4271184128405</v>
       </c>
       <c r="D78">
-        <v>240.8758110712289</v>
+        <v>239.8049994322002</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.003250000000000005</v>
       </c>
       <c r="B79">
-        <v>-515.2584092377712</v>
+        <v>-506.8564363683413</v>
       </c>
       <c r="C79">
-        <v>322.740869353443</v>
+        <v>321.1900767767332</v>
       </c>
       <c r="D79">
-        <v>192.5175398843282</v>
+        <v>185.6663595916081</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.003291666666666671</v>
       </c>
       <c r="B80">
-        <v>-455.8698483955553</v>
+        <v>-465.5457841266975</v>
       </c>
       <c r="C80">
-        <v>346.6289788179711</v>
+        <v>352.6837955167107</v>
       </c>
       <c r="D80">
-        <v>109.2408695775843</v>
+        <v>112.8619886099869</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.003333333333333338</v>
       </c>
       <c r="B81">
-        <v>-440.6487195705131</v>
+        <v>-438.4243719465338</v>
       </c>
       <c r="C81">
-        <v>389.347850614961</v>
+        <v>384.069274163121</v>
       </c>
       <c r="D81">
-        <v>51.30086895555218</v>
+        <v>54.35509778341287</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003375000000000005</v>
       </c>
       <c r="B82">
-        <v>-427.5624588707189</v>
+        <v>-424.1347792450898</v>
       </c>
       <c r="C82">
-        <v>402.1778159130796</v>
+        <v>399.7384347798109</v>
       </c>
       <c r="D82">
-        <v>25.38464295763933</v>
+        <v>24.39634446527896</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003416666666666672</v>
       </c>
       <c r="B83">
-        <v>-421.4035978525053</v>
+        <v>-427.1420222834438</v>
       </c>
       <c r="C83">
-        <v>412.310471133289</v>
+        <v>420.5311797376698</v>
       </c>
       <c r="D83">
-        <v>9.093126719216258</v>
+        <v>6.610842545773949</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.003458333333333339</v>
       </c>
       <c r="B84">
-        <v>-414.6805881291095</v>
+        <v>-420.7602284220038</v>
       </c>
       <c r="C84">
-        <v>422.3849686924599</v>
+        <v>427.345416436977</v>
       </c>
       <c r="D84">
-        <v>-7.704380563350327</v>
+        <v>-6.585188014973113</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003500000000000006</v>
       </c>
       <c r="B85">
-        <v>-399.5224849920822</v>
+        <v>-400.0787087583528</v>
       </c>
       <c r="C85">
-        <v>425.4411145226552</v>
+        <v>424.4610785596934</v>
       </c>
       <c r="D85">
-        <v>-25.91862953057299</v>
+        <v>-24.38236980134069</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003541666666666673</v>
       </c>
       <c r="B86">
-        <v>-395.3605156117522</v>
+        <v>-385.3667747322962</v>
       </c>
       <c r="C86">
-        <v>447.4536532552308</v>
+        <v>439.2406892476512</v>
       </c>
       <c r="D86">
-        <v>-52.09313764347856</v>
+        <v>-53.87391451535495</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003583333333333339</v>
       </c>
       <c r="B87">
-        <v>-348.1677394703122</v>
+        <v>-353.5829025501764</v>
       </c>
       <c r="C87">
-        <v>460.7229476830479</v>
+        <v>466.3039956144022</v>
       </c>
       <c r="D87">
-        <v>-112.5552082127357</v>
+        <v>-112.7210930642258</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003625000000000006</v>
       </c>
       <c r="B88">
-        <v>-318.2573496067174</v>
+        <v>-321.716110971</v>
       </c>
       <c r="C88">
-        <v>506.2874369761353</v>
+        <v>506.1701852380925</v>
       </c>
       <c r="D88">
-        <v>-188.030087369418</v>
+        <v>-184.4540742670925</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003666666666666673</v>
       </c>
       <c r="B89">
-        <v>-301.4025759114417</v>
+        <v>-297.849184733226</v>
       </c>
       <c r="C89">
-        <v>545.988179283424</v>
+        <v>538.0904974103221</v>
       </c>
       <c r="D89">
-        <v>-244.5856033719824</v>
+        <v>-240.2413126770961</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00370833333333334</v>
       </c>
       <c r="B90">
-        <v>-285.8431999480035</v>
+        <v>-286.3189032627856</v>
       </c>
       <c r="C90">
-        <v>545.8414222690814</v>
+        <v>553.0553183607763</v>
       </c>
       <c r="D90">
-        <v>-259.9982223210778</v>
+        <v>-266.7364150979906</v>
       </c>
     </row>
   </sheetData>
